--- a/tables/pre_post.xlsx
+++ b/tables/pre_post.xlsx
@@ -530,25 +530,25 @@
         <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>101.9</v>
+        <v>92</v>
       </c>
       <c r="F2" t="n">
         <v>101.2</v>
       </c>
       <c r="G2" t="n">
-        <v>105.1</v>
+        <v>106.5</v>
       </c>
       <c r="H2" t="n">
         <v>98.9</v>
       </c>
       <c r="I2" t="n">
-        <v>15.88</v>
+        <v>15.72</v>
       </c>
       <c r="J2" t="n">
         <v>15.87</v>
       </c>
       <c r="K2" t="n">
-        <v>13.93</v>
+        <v>12.95</v>
       </c>
       <c r="L2" t="n">
         <v>13.87</v>
@@ -564,16 +564,16 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2" t="n">
-        <v>0.895</v>
+        <v>0.457</v>
       </c>
       <c r="X2" t="n">
-        <v>0.813</v>
+        <v>0.393</v>
       </c>
       <c r="Y2" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Z2" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -590,13 +590,13 @@
         <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>6.35</v>
+        <v>5.92</v>
       </c>
       <c r="F3" t="n">
         <v>5.94</v>
       </c>
       <c r="G3" t="n">
-        <v>5.09</v>
+        <v>6.47</v>
       </c>
       <c r="H3" t="n">
         <v>5.81</v>
@@ -606,13 +606,13 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>0.216</v>
+        <v>0.095</v>
       </c>
       <c r="N3" t="n">
         <v>0.13</v>
       </c>
       <c r="O3" t="n">
-        <v>0.166</v>
+        <v>0.057</v>
       </c>
       <c r="P3" t="n">
         <v>0.13</v>
@@ -624,16 +624,16 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3" t="n">
-        <v>0.135</v>
+        <v>0.201</v>
       </c>
       <c r="X3" t="n">
-        <v>0.214</v>
+        <v>0.142</v>
       </c>
       <c r="Y3" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="Z3" t="n">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -650,13 +650,13 @@
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>52.3</v>
+        <v>42.4</v>
       </c>
       <c r="F4" t="n">
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>67.4</v>
+        <v>62.6</v>
       </c>
       <c r="H4" t="n">
         <v>60</v>
@@ -670,10 +670,10 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>47.3</v>
+        <v>37.4</v>
       </c>
       <c r="R4" t="n">
-        <v>57.3</v>
+        <v>47.4</v>
       </c>
       <c r="S4" t="n">
         <v>45</v>
@@ -688,16 +688,16 @@
         <v>65</v>
       </c>
       <c r="W4" t="n">
-        <v>0.588</v>
+        <v>0.133</v>
       </c>
       <c r="X4" t="n">
-        <v>0.686</v>
+        <v>0.13</v>
       </c>
       <c r="Y4" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="Z4" t="n">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/tables/pre_post.xlsx
+++ b/tables/pre_post.xlsx
@@ -530,25 +530,25 @@
         <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>109.8</v>
       </c>
       <c r="F2" t="n">
         <v>101.2</v>
       </c>
       <c r="G2" t="n">
-        <v>106.5</v>
+        <v>104.1</v>
       </c>
       <c r="H2" t="n">
         <v>98.9</v>
       </c>
       <c r="I2" t="n">
-        <v>15.72</v>
+        <v>15.93</v>
       </c>
       <c r="J2" t="n">
         <v>15.87</v>
       </c>
       <c r="K2" t="n">
-        <v>12.95</v>
+        <v>13.54</v>
       </c>
       <c r="L2" t="n">
         <v>13.87</v>
@@ -564,16 +564,16 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2" t="n">
-        <v>0.457</v>
+        <v>0.552</v>
       </c>
       <c r="X2" t="n">
-        <v>0.393</v>
+        <v>0.497</v>
       </c>
       <c r="Y2" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -590,13 +590,13 @@
         <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>5.92</v>
+        <v>6.57</v>
       </c>
       <c r="F3" t="n">
         <v>5.94</v>
       </c>
       <c r="G3" t="n">
-        <v>6.47</v>
+        <v>4.96</v>
       </c>
       <c r="H3" t="n">
         <v>5.81</v>
@@ -606,13 +606,13 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>0.095</v>
+        <v>0.177</v>
       </c>
       <c r="N3" t="n">
         <v>0.13</v>
       </c>
       <c r="O3" t="n">
-        <v>0.057</v>
+        <v>0.061</v>
       </c>
       <c r="P3" t="n">
         <v>0.13</v>
@@ -624,16 +624,16 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3" t="n">
-        <v>0.201</v>
+        <v>0.71</v>
       </c>
       <c r="X3" t="n">
-        <v>0.142</v>
+        <v>0.763</v>
       </c>
       <c r="Y3" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Z3" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -650,13 +650,13 @@
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="F4" t="n">
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>62.6</v>
+        <v>69.1</v>
       </c>
       <c r="H4" t="n">
         <v>60</v>
@@ -670,10 +670,10 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="R4" t="n">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="S4" t="n">
         <v>45</v>
@@ -688,16 +688,16 @@
         <v>65</v>
       </c>
       <c r="W4" t="n">
-        <v>0.133</v>
+        <v>0.485</v>
       </c>
       <c r="X4" t="n">
-        <v>0.13</v>
+        <v>0.468</v>
       </c>
       <c r="Y4" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="Z4" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
